--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/ARIZONA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/ARIZONA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1245"/>
+  <dimension ref="A1:D1239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C30">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C58">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1725,14 +1725,14 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C103">
         <v>11</v>
       </c>
       <c r="D103">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="104">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C106">
@@ -1836,7 +1836,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>0.009473774868659031</v>
+        <v>0.009473774868659033</v>
       </c>
     </row>
     <row r="112">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,14 +2076,14 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C130">
         <v>11</v>
       </c>
       <c r="D130">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="131">
@@ -2315,7 +2315,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C148">
@@ -2450,7 +2450,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C158">
@@ -2476,7 +2476,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C164">
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="D172">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="173">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C179">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C192">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C196">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C204">
@@ -3071,7 +3071,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C205">
@@ -3188,12 +3188,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C214">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C218">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C222">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C225">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C227">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C234">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C240">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C255">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C265">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C273">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C278">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C279">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C280">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C291">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C292">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C298">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C302">
@@ -4446,7 +4446,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C310">
@@ -4492,13 +4492,13 @@
         <v>11</v>
       </c>
       <c r="D313">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C314">
@@ -4518,13 +4518,13 @@
         <v>11</v>
       </c>
       <c r="D315">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C316">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C318">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C319">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C320">
@@ -4641,7 +4641,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C325">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C336">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C339">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C344">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,14 +4971,14 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C350">
         <v>11</v>
       </c>
       <c r="D350">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="351">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C354">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C363">
@@ -5160,13 +5160,13 @@
         <v>11</v>
       </c>
       <c r="D364">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C365">
@@ -5186,7 +5186,7 @@
         <v>11</v>
       </c>
       <c r="D366">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C368">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C381">
@@ -5400,14 +5400,14 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C383">
         <v>11</v>
       </c>
       <c r="D383">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="384">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C385">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C387">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C391">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C392">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C404">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C408">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C411">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C417">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C418">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C421">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C424">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C433">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C434">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C436">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C439">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C440">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C444">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C449">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C451">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C461">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C468">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C476">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C480">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C486">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C497">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C499">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C502">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C506">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C508">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C509">
@@ -7120,13 +7120,13 @@
         <v>11</v>
       </c>
       <c r="D514">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C515">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C517">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C518">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C528">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C529">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C530">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C536">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C539">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C540">
@@ -7703,7 +7703,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C559">
@@ -7729,7 +7729,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C561">
@@ -7814,7 +7814,7 @@
         <v>11</v>
       </c>
       <c r="D567">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="568">
@@ -8321,7 +8321,7 @@
         <v>11</v>
       </c>
       <c r="D606">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="607">
@@ -8496,7 +8496,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C620">
@@ -8685,7 +8685,7 @@
         <v>11</v>
       </c>
       <c r="D634">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="635">
@@ -8800,7 +8800,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C643">
@@ -8878,7 +8878,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C649">
@@ -8917,14 +8917,14 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C652">
         <v>11</v>
       </c>
       <c r="D652">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="653">
@@ -8995,7 +8995,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C658">
@@ -9080,13 +9080,13 @@
         <v>11</v>
       </c>
       <c r="D664">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C665">
@@ -9143,7 +9143,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C669">
@@ -9195,7 +9195,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C673">
@@ -9273,7 +9273,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C679">
@@ -9499,7 +9499,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C696">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C699">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C702">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C706">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C714">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C716">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C717">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C722">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C756">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C772">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C783">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C800">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C815">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C829">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C842">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C843">
@@ -11511,7 +11511,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C850">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C852">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C854">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C861">
@@ -11693,7 +11693,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C864">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C873">
@@ -11836,7 +11836,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C875">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C883">
@@ -11960,7 +11960,7 @@
         <v>11</v>
       </c>
       <c r="D884">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="885">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C886">
@@ -12005,7 +12005,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C888">
@@ -12057,7 +12057,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C892">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C901">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C904">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C912">
@@ -12335,7 +12335,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C913">
@@ -12361,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C915">
@@ -12374,7 +12374,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C916">
@@ -12413,7 +12413,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C919">
@@ -12439,7 +12439,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C921">
@@ -12566,7 +12566,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C930">
@@ -12644,7 +12644,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C936">
@@ -12722,7 +12722,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C942">
@@ -12800,7 +12800,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C948">
@@ -12813,7 +12813,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C949">
@@ -13124,7 +13124,7 @@
         <v>1158</v>
       </c>
       <c r="D972">
-        <v>0.09973301179915597</v>
+        <v>0.09973301179915596</v>
       </c>
     </row>
     <row r="973">
@@ -13681,7 +13681,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1015">
@@ -13727,7 +13727,7 @@
         <v>11</v>
       </c>
       <c r="D1018">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="1019">
@@ -13824,7 +13824,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1026">
@@ -13863,7 +13863,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1029">
@@ -13948,7 +13948,7 @@
         <v>11</v>
       </c>
       <c r="D1035">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="1036">
@@ -14102,7 +14102,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1047">
@@ -14328,7 +14328,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1064">
@@ -14450,7 +14450,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1073">
@@ -14476,7 +14476,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1075">
@@ -14515,7 +14515,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1078">
@@ -14528,7 +14528,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1079">
@@ -14567,7 +14567,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1082">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1095">
@@ -14819,7 +14819,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1101">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1104">
@@ -14962,7 +14962,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1112">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1124">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1136">
@@ -15300,7 +15300,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1138">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1140">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1148">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1150">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1153">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1158">
@@ -15827,7 +15827,7 @@
         <v>11</v>
       </c>
       <c r="D1178">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="1179">
@@ -16090,7 +16090,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1198">
@@ -16220,7 +16220,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1208">
@@ -16350,7 +16350,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1218">
@@ -16363,7 +16363,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1219">
@@ -16376,7 +16376,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1220">
@@ -16422,7 +16422,7 @@
         <v>11</v>
       </c>
       <c r="D1223">
-        <v>0.0009473774868659031</v>
+        <v>0.0009473774868659032</v>
       </c>
     </row>
     <row r="1224">
@@ -16493,7 +16493,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1229">
@@ -16506,7 +16506,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1230">
@@ -16519,7 +16519,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1231">
@@ -16558,7 +16558,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1234">
@@ -16631,41 +16631,6 @@
       </c>
       <c r="D1239">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
